--- a/ILCA RADIAL.xlsx
+++ b/ILCA RADIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\SIY ILCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9002897-310C-4121-B017-797E7C1AA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30CD4D-03BC-4EA8-BC34-3D61FCF59FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
   <si>
     <t>Club</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>CHI</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1387,8 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="D40" s="7">
         <v>35446</v>

--- a/ILCA RADIAL.xlsx
+++ b/ILCA RADIAL.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\SIY ILCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\SIY_ILCA\SIY_ILCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30CD4D-03BC-4EA8-BC34-3D61FCF59FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CABD1-95A9-44D5-932C-95D5A96BD757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ILCA 6 RADIAL" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ILCA 6 RADIAL'!$A$1:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ILCA 6 RADIAL'!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Administrador</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="192">
   <si>
     <t>Club</t>
   </si>
@@ -454,9 +454,6 @@
     <t>CRLP</t>
   </si>
   <si>
-    <t>Club Mendoza de Regatas</t>
-  </si>
-  <si>
     <t>CNC</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
     <t>RODRIGUEZ REYNOSO PEDRO</t>
   </si>
   <si>
-    <t>Nombre Timonel</t>
-  </si>
-  <si>
     <t>CNSE -  YCCN</t>
   </si>
   <si>
@@ -757,9 +751,6 @@
     <t>JACKSON ROB</t>
   </si>
   <si>
-    <t>PEDERNERA FEDERICO ALBERTO</t>
-  </si>
-  <si>
     <t>FERRERO CHANTAL</t>
   </si>
   <si>
@@ -989,6 +980,9 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -1384,27 +1378,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1416,768 +1410,770 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7">
         <v>24723</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D2)/365)&lt;75,((TODAY()-D2)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D2)/365)&lt;65,((TODAY()-D2)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D2)/365)&lt;55,((TODAY()-D2)/365)&gt;45),"Master",IF(AND(((TODAY()-D2)/365)&lt;45,((TODAY()-D2)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D2)/365)&lt;21,"Junior","")))))</f>
+        <f ca="1">IF(AND(((TODAY()-D2)/365)&lt;75,((TODAY()-D2)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D2)/365)&lt;65,((TODAY()-D2)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D2)/365)&lt;55,((TODAY()-D2)/365)&gt;45),"Master",IF(AND(((TODAY()-D2)/365)&lt;45,((TODAY()-D2)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D2)/365)&lt;18,"Junior","")))))</f>
         <v>Master</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D3" s="7">
-        <v>28755</v>
+        <v>38152</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E66" ca="1" si="0">IF(AND(((TODAY()-D3)/365)&lt;75,((TODAY()-D3)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D3)/365)&lt;65,((TODAY()-D3)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D3)/365)&lt;55,((TODAY()-D3)/365)&gt;45),"Master",IF(AND(((TODAY()-D3)/365)&lt;45,((TODAY()-D3)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D3)/365)&lt;21,"Junior","")))))</f>
+        <f t="shared" ref="E3:E66" ca="1" si="0">IF(AND(((TODAY()-D3)/365)&lt;75,((TODAY()-D3)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D3)/365)&lt;65,((TODAY()-D3)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D3)/365)&lt;55,((TODAY()-D3)/365)&gt;45),"Master",IF(AND(((TODAY()-D3)/365)&lt;45,((TODAY()-D3)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D3)/365)&lt;18,"Junior","")))))</f>
+        <v>Junior</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>37125</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28361</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Ap. de Master</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="7">
-        <v>38152</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38518</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7">
-        <v>37125</v>
-      </c>
-      <c r="E5" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25078</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Master</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="7">
-        <v>28361</v>
-      </c>
-      <c r="E6" s="7" t="str">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7">
+        <v>23698</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Grand Master</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28305</v>
+      </c>
+      <c r="E9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ap. de Master</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="7">
-        <v>38518</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7">
-        <v>25078</v>
-      </c>
-      <c r="E8" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Master</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>38688</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="7">
-        <v>23698</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Grand Master</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="7">
-        <v>28305</v>
-      </c>
-      <c r="E10" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ap. de Master</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>38688</v>
+        <v>25882</v>
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v>Master</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>25882</v>
+        <v>36911</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Master</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>36911</v>
+        <v>38610</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>Junior</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>38610</v>
+        <v>38250</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>38250</v>
+        <v>38777</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38945</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38723</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7">
+        <v>37689</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>38777</v>
-      </c>
-      <c r="E16" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7">
+        <v>26681</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Master</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="7">
-        <v>38945</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7">
-        <v>38723</v>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22464</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Grand Master</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7">
-        <v>37689</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38525</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7">
-        <v>26681</v>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Master</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7">
-        <v>22464</v>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Grand Master</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
-        <v>38525</v>
+        <v>37741</v>
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F22" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7">
-        <v>37741</v>
+        <v>37606</v>
       </c>
       <c r="E23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F23" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>37606</v>
+        <v>37256</v>
       </c>
       <c r="E24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F24" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G24" s="10"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D25" s="7">
-        <v>37256</v>
+        <v>38769</v>
       </c>
       <c r="E25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G25" s="10"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>137</v>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>38769</v>
+        <v>27720</v>
       </c>
       <c r="E26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v>Master</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="10"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7">
+        <v>38027</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="7">
+        <v>37889</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="7">
-        <v>27720</v>
-      </c>
-      <c r="E27" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Master</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="7">
+        <v>34914</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="7">
-        <v>38027</v>
-      </c>
-      <c r="E28" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7">
+        <v>37533</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="7">
-        <v>37889</v>
-      </c>
-      <c r="E29" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>37995</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="7">
-        <v>34914</v>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7">
-        <v>37533</v>
-      </c>
-      <c r="E31" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D32" s="7">
-        <v>37995</v>
+        <v>32355</v>
       </c>
       <c r="E32" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v>Ap. de Master</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D33" s="7">
-        <v>32355</v>
+        <v>38257</v>
       </c>
       <c r="E33" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Ap. de Master</v>
+        <v>Junior</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D34" s="7">
-        <v>38257</v>
+        <v>38288</v>
       </c>
       <c r="E34" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7">
-        <v>38288</v>
+        <v>37554</v>
       </c>
       <c r="E35" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F35" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
@@ -2186,1008 +2182,986 @@
         <v>24</v>
       </c>
       <c r="D36" s="7">
-        <v>37554</v>
+        <v>38383</v>
       </c>
       <c r="E36" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="7">
+        <v>38167</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7">
+        <v>30459</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ap. de Master</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="7">
-        <v>38383</v>
-      </c>
-      <c r="E37" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="7">
-        <v>38167</v>
-      </c>
-      <c r="E38" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7">
-        <v>30459</v>
+        <v>35446</v>
       </c>
       <c r="E39" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Ap. de Master</v>
+        <v/>
       </c>
       <c r="F39" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="D40" s="7">
-        <v>35446</v>
+        <v>38551</v>
       </c>
       <c r="E40" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>Junior</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D41" s="7">
-        <v>38551</v>
+        <v>38666</v>
       </c>
       <c r="E41" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7">
-        <v>38666</v>
+        <v>38581</v>
       </c>
       <c r="E42" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D43" s="7">
-        <v>38581</v>
+        <v>35213</v>
       </c>
       <c r="E43" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="7">
+        <v>37038</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="7">
+        <v>39333</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="7">
-        <v>35213</v>
-      </c>
-      <c r="E44" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="7">
+        <v>38994</v>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="7">
-        <v>37038</v>
-      </c>
-      <c r="E45" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="7">
+        <v>38614</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="7">
-        <v>39333</v>
-      </c>
-      <c r="E46" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="7">
-        <v>38994</v>
-      </c>
-      <c r="E47" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="7">
-        <v>38614</v>
+        <v>39107</v>
       </c>
       <c r="E48" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="7">
+        <v>33061</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ap. de Master</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="7">
+        <v>36418</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="7">
-        <v>39107</v>
-      </c>
-      <c r="E49" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="7">
+        <v>38407</v>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="7">
-        <v>33061</v>
-      </c>
-      <c r="E50" s="7" t="str">
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="7">
+        <v>38519</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="7">
+        <v>28576</v>
+      </c>
+      <c r="E53" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ap. de Master</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="7">
-        <v>36418</v>
-      </c>
-      <c r="E51" s="7" t="str">
+      <c r="F53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="7">
+        <v>37222</v>
+      </c>
+      <c r="E54" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="7">
-        <v>38407</v>
-      </c>
-      <c r="E52" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="7">
-        <v>38519</v>
-      </c>
-      <c r="E53" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="7">
+        <v>34158</v>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="7">
-        <v>28576</v>
-      </c>
-      <c r="E54" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ap. de Master</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="7">
-        <v>37222</v>
-      </c>
-      <c r="E55" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>101</v>
+      <c r="C56" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D56" s="7">
-        <v>34158</v>
+        <v>37002</v>
       </c>
       <c r="E56" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F56" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7">
-        <v>37002</v>
+        <v>25711</v>
       </c>
       <c r="E57" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
+        <v>Master</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="D58" s="7">
-        <v>25711</v>
+        <v>39043</v>
       </c>
       <c r="E58" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Master</v>
+        <v>Junior</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="7">
+        <v>36837</v>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="7">
+        <v>37763</v>
+      </c>
+      <c r="E60" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="7">
+        <v>37869</v>
+      </c>
+      <c r="E61" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="7">
+        <v>38481</v>
+      </c>
+      <c r="E62" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="7">
+        <v>38310</v>
+      </c>
+      <c r="E63" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Junior</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="7">
-        <v>39043</v>
-      </c>
-      <c r="E59" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="7">
-        <v>36837</v>
-      </c>
-      <c r="E60" s="7" t="str">
+      <c r="D64" s="7">
+        <v>36031</v>
+      </c>
+      <c r="E64" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="7">
-        <v>37763</v>
-      </c>
-      <c r="E61" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="7">
-        <v>37869</v>
-      </c>
-      <c r="E62" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="7">
-        <v>38481</v>
-      </c>
-      <c r="E63" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="7">
+        <v>36208</v>
+      </c>
+      <c r="E65" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="7">
-        <v>38310</v>
-      </c>
-      <c r="E64" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Junior</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="7">
-        <v>36031</v>
-      </c>
-      <c r="E65" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D66" s="7">
-        <v>36208</v>
+        <v>36807</v>
       </c>
       <c r="E66" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F66" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D67" s="7">
-        <v>36807</v>
+        <v>38247</v>
       </c>
       <c r="E67" s="7" t="str">
-        <f t="shared" ref="E67:E81" ca="1" si="1">IF(AND(((TODAY()-D67)/365)&lt;75,((TODAY()-D67)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D67)/365)&lt;65,((TODAY()-D67)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D67)/365)&lt;55,((TODAY()-D67)/365)&gt;45),"Master",IF(AND(((TODAY()-D67)/365)&lt;45,((TODAY()-D67)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D67)/365)&lt;21,"Junior","")))))</f>
-        <v/>
+        <f t="shared" ref="E67:E80" ca="1" si="1">IF(AND(((TODAY()-D67)/365)&lt;75,((TODAY()-D67)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D67)/365)&lt;65,((TODAY()-D67)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D67)/365)&lt;55,((TODAY()-D67)/365)&gt;45),"Master",IF(AND(((TODAY()-D67)/365)&lt;45,((TODAY()-D67)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D67)/365)&lt;18,"Junior","")))))</f>
+        <v>Junior</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D68" s="7">
-        <v>38247</v>
+        <v>38250</v>
       </c>
       <c r="E68" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D69" s="7">
-        <v>38250</v>
+        <v>37341</v>
       </c>
       <c r="E69" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F69" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D70" s="7">
-        <v>37341</v>
+        <v>23656</v>
       </c>
       <c r="E70" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
+        <v>Grand Master</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D71" s="7">
-        <v>23656</v>
+        <v>38070</v>
       </c>
       <c r="E71" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Grand Master</v>
+        <v>Junior</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D72" s="7">
-        <v>38070</v>
+        <v>38741</v>
       </c>
       <c r="E72" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D73" s="7">
-        <v>38741</v>
+        <v>38077</v>
       </c>
       <c r="E73" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D74" s="7">
-        <v>38077</v>
+        <v>38973</v>
       </c>
       <c r="E74" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D75" s="7">
-        <v>38973</v>
+        <v>37445</v>
       </c>
       <c r="E75" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F75" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D76" s="7">
-        <v>37445</v>
+        <v>38667</v>
       </c>
       <c r="E76" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D77" s="7">
-        <v>38667</v>
+        <v>39094</v>
       </c>
       <c r="E77" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D78" s="7">
-        <v>39094</v>
+        <v>37073</v>
       </c>
       <c r="E78" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F78" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D79" s="7">
-        <v>37073</v>
+        <v>37204</v>
       </c>
       <c r="E79" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
+        <v/>
       </c>
       <c r="F79" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>186</v>
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="7">
-        <v>37204</v>
+        <v>14</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="8">
+        <v>38625</v>
       </c>
       <c r="E80" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="8">
-        <v>38625</v>
-      </c>
-      <c r="E81" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Junior</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/ILCA RADIAL.xlsx
+++ b/ILCA RADIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\SIY ILCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE6954-B488-43E0-B28D-D6655C9BE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAD8D3-9505-4E88-AAFB-982B07AC1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="193">
   <si>
     <t>Club</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1433,7 @@
         <v>28361</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D2)/365)&lt;75,((TODAY()-D2)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D2)/365)&lt;65,((TODAY()-D2)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D2)/365)&lt;55,((TODAY()-D2)/365)&gt;45),"Master",IF(AND(((TODAY()-D2)/365)&lt;45,((TODAY()-D2)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D2)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ref="E2:E33" ca="1" si="0">IF(AND(((TODAY()-D2)/365)&lt;75,((TODAY()-D2)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D2)/365)&lt;65,((TODAY()-D2)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D2)/365)&lt;55,((TODAY()-D2)/365)&gt;45),"Master",IF(AND(((TODAY()-D2)/365)&lt;45,((TODAY()-D2)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D2)/365)&lt;19,"Junior","")))))</f>
         <v>Ap. de Master</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1452,7 +1455,7 @@
         <v>38518</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D3)/365)&lt;75,((TODAY()-D3)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D3)/365)&lt;65,((TODAY()-D3)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D3)/365)&lt;55,((TODAY()-D3)/365)&gt;45),"Master",IF(AND(((TODAY()-D3)/365)&lt;45,((TODAY()-D3)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D3)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1474,7 +1477,7 @@
         <v>38070</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D4)/365)&lt;75,((TODAY()-D4)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D4)/365)&lt;65,((TODAY()-D4)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D4)/365)&lt;55,((TODAY()-D4)/365)&gt;45),"Master",IF(AND(((TODAY()-D4)/365)&lt;45,((TODAY()-D4)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D4)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1496,7 +1499,7 @@
         <v>37995</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D5)/365)&lt;75,((TODAY()-D5)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D5)/365)&lt;65,((TODAY()-D5)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D5)/365)&lt;55,((TODAY()-D5)/365)&gt;45),"Master",IF(AND(((TODAY()-D5)/365)&lt;45,((TODAY()-D5)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D5)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1518,7 +1521,7 @@
         <v>38741</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D6)/365)&lt;75,((TODAY()-D6)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D6)/365)&lt;65,((TODAY()-D6)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D6)/365)&lt;55,((TODAY()-D6)/365)&gt;45),"Master",IF(AND(((TODAY()-D6)/365)&lt;45,((TODAY()-D6)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D6)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1540,7 +1543,7 @@
         <v>36031</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D7)/365)&lt;75,((TODAY()-D7)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D7)/365)&lt;65,((TODAY()-D7)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D7)/365)&lt;55,((TODAY()-D7)/365)&gt;45),"Master",IF(AND(((TODAY()-D7)/365)&lt;45,((TODAY()-D7)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D7)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F7" s="2" t="s">
@@ -1562,7 +1565,7 @@
         <v>38525</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D8)/365)&lt;75,((TODAY()-D8)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D8)/365)&lt;65,((TODAY()-D8)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D8)/365)&lt;55,((TODAY()-D8)/365)&gt;45),"Master",IF(AND(((TODAY()-D8)/365)&lt;45,((TODAY()-D8)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D8)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1584,7 +1587,7 @@
         <v>25078</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D9)/365)&lt;75,((TODAY()-D9)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D9)/365)&lt;65,((TODAY()-D9)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D9)/365)&lt;55,((TODAY()-D9)/365)&gt;45),"Master",IF(AND(((TODAY()-D9)/365)&lt;45,((TODAY()-D9)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D9)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Master</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1606,7 +1609,7 @@
         <v>36208</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D10)/365)&lt;75,((TODAY()-D10)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D10)/365)&lt;65,((TODAY()-D10)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D10)/365)&lt;55,((TODAY()-D10)/365)&gt;45),"Master",IF(AND(((TODAY()-D10)/365)&lt;45,((TODAY()-D10)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D10)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F10" s="2" t="s">
@@ -1628,7 +1631,7 @@
         <v>37741</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D11)/365)&lt;75,((TODAY()-D11)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D11)/365)&lt;65,((TODAY()-D11)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D11)/365)&lt;55,((TODAY()-D11)/365)&gt;45),"Master",IF(AND(((TODAY()-D11)/365)&lt;45,((TODAY()-D11)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D11)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1650,7 +1653,7 @@
         <v>36807</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D12)/365)&lt;75,((TODAY()-D12)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D12)/365)&lt;65,((TODAY()-D12)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D12)/365)&lt;55,((TODAY()-D12)/365)&gt;45),"Master",IF(AND(((TODAY()-D12)/365)&lt;45,((TODAY()-D12)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D12)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F12" s="2" t="s">
@@ -1672,7 +1675,7 @@
         <v>38027</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D13)/365)&lt;75,((TODAY()-D13)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D13)/365)&lt;65,((TODAY()-D13)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D13)/365)&lt;55,((TODAY()-D13)/365)&gt;45),"Master",IF(AND(((TODAY()-D13)/365)&lt;45,((TODAY()-D13)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D13)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1694,7 +1697,7 @@
         <v>32355</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D14)/365)&lt;75,((TODAY()-D14)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D14)/365)&lt;65,((TODAY()-D14)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D14)/365)&lt;55,((TODAY()-D14)/365)&gt;45),"Master",IF(AND(((TODAY()-D14)/365)&lt;45,((TODAY()-D14)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D14)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Ap. de Master</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1716,7 +1719,7 @@
         <v>23698</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D15)/365)&lt;75,((TODAY()-D15)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D15)/365)&lt;65,((TODAY()-D15)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D15)/365)&lt;55,((TODAY()-D15)/365)&gt;45),"Master",IF(AND(((TODAY()-D15)/365)&lt;45,((TODAY()-D15)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D15)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Grand Master</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1738,7 +1741,7 @@
         <v>37889</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D16)/365)&lt;75,((TODAY()-D16)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D16)/365)&lt;65,((TODAY()-D16)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D16)/365)&lt;55,((TODAY()-D16)/365)&gt;45),"Master",IF(AND(((TODAY()-D16)/365)&lt;45,((TODAY()-D16)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D16)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1760,7 +1763,7 @@
         <v>38257</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D17)/365)&lt;75,((TODAY()-D17)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D17)/365)&lt;65,((TODAY()-D17)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D17)/365)&lt;55,((TODAY()-D17)/365)&gt;45),"Master",IF(AND(((TODAY()-D17)/365)&lt;45,((TODAY()-D17)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D17)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1782,7 +1785,7 @@
         <v>37038</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D18)/365)&lt;75,((TODAY()-D18)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D18)/365)&lt;65,((TODAY()-D18)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D18)/365)&lt;55,((TODAY()-D18)/365)&gt;45),"Master",IF(AND(((TODAY()-D18)/365)&lt;45,((TODAY()-D18)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D18)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F18" s="2" t="s">
@@ -1804,7 +1807,7 @@
         <v>38077</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D19)/365)&lt;75,((TODAY()-D19)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D19)/365)&lt;65,((TODAY()-D19)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D19)/365)&lt;55,((TODAY()-D19)/365)&gt;45),"Master",IF(AND(((TODAY()-D19)/365)&lt;45,((TODAY()-D19)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D19)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1826,7 +1829,7 @@
         <v>23656</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D20)/365)&lt;75,((TODAY()-D20)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D20)/365)&lt;65,((TODAY()-D20)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D20)/365)&lt;55,((TODAY()-D20)/365)&gt;45),"Master",IF(AND(((TODAY()-D20)/365)&lt;45,((TODAY()-D20)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D20)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Grand Master</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1848,7 +1851,7 @@
         <v>37606</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D21)/365)&lt;75,((TODAY()-D21)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D21)/365)&lt;65,((TODAY()-D21)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D21)/365)&lt;55,((TODAY()-D21)/365)&gt;45),"Master",IF(AND(((TODAY()-D21)/365)&lt;45,((TODAY()-D21)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D21)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F21" s="2" t="s">
@@ -1870,7 +1873,7 @@
         <v>39333</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D22)/365)&lt;75,((TODAY()-D22)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D22)/365)&lt;65,((TODAY()-D22)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D22)/365)&lt;55,((TODAY()-D22)/365)&gt;45),"Master",IF(AND(((TODAY()-D22)/365)&lt;45,((TODAY()-D22)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D22)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1892,7 +1895,7 @@
         <v>30459</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D23)/365)&lt;75,((TODAY()-D23)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D23)/365)&lt;65,((TODAY()-D23)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D23)/365)&lt;55,((TODAY()-D23)/365)&gt;45),"Master",IF(AND(((TODAY()-D23)/365)&lt;45,((TODAY()-D23)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D23)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Ap. de Master</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1915,7 +1918,7 @@
         <v>35446</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D24)/365)&lt;75,((TODAY()-D24)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D24)/365)&lt;65,((TODAY()-D24)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D24)/365)&lt;55,((TODAY()-D24)/365)&gt;45),"Master",IF(AND(((TODAY()-D24)/365)&lt;45,((TODAY()-D24)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D24)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F24" s="2" t="s">
@@ -1939,7 +1942,7 @@
         <v>38994</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D25)/365)&lt;75,((TODAY()-D25)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D25)/365)&lt;65,((TODAY()-D25)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D25)/365)&lt;55,((TODAY()-D25)/365)&gt;45),"Master",IF(AND(((TODAY()-D25)/365)&lt;45,((TODAY()-D25)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D25)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1963,7 +1966,7 @@
         <v>34158</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D26)/365)&lt;75,((TODAY()-D26)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D26)/365)&lt;65,((TODAY()-D26)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D26)/365)&lt;55,((TODAY()-D26)/365)&gt;45),"Master",IF(AND(((TODAY()-D26)/365)&lt;45,((TODAY()-D26)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D26)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F26" s="2" t="s">
@@ -1987,7 +1990,7 @@
         <v>38551</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D27)/365)&lt;75,((TODAY()-D27)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D27)/365)&lt;65,((TODAY()-D27)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D27)/365)&lt;55,((TODAY()-D27)/365)&gt;45),"Master",IF(AND(((TODAY()-D27)/365)&lt;45,((TODAY()-D27)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D27)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2009,7 +2012,7 @@
         <v>37869</v>
       </c>
       <c r="E28" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D28)/365)&lt;75,((TODAY()-D28)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D28)/365)&lt;65,((TODAY()-D28)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D28)/365)&lt;55,((TODAY()-D28)/365)&gt;45),"Master",IF(AND(((TODAY()-D28)/365)&lt;45,((TODAY()-D28)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D28)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2031,7 +2034,7 @@
         <v>38481</v>
       </c>
       <c r="E29" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D29)/365)&lt;75,((TODAY()-D29)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D29)/365)&lt;65,((TODAY()-D29)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D29)/365)&lt;55,((TODAY()-D29)/365)&gt;45),"Master",IF(AND(((TODAY()-D29)/365)&lt;45,((TODAY()-D29)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D29)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2053,7 +2056,7 @@
         <v>38152</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D30)/365)&lt;75,((TODAY()-D30)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D30)/365)&lt;65,((TODAY()-D30)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D30)/365)&lt;55,((TODAY()-D30)/365)&gt;45),"Master",IF(AND(((TODAY()-D30)/365)&lt;45,((TODAY()-D30)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D30)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2075,7 +2078,7 @@
         <v>38614</v>
       </c>
       <c r="E31" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D31)/365)&lt;75,((TODAY()-D31)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D31)/365)&lt;65,((TODAY()-D31)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D31)/365)&lt;55,((TODAY()-D31)/365)&gt;45),"Master",IF(AND(((TODAY()-D31)/365)&lt;45,((TODAY()-D31)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D31)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2097,7 +2100,7 @@
         <v>38688</v>
       </c>
       <c r="E32" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D32)/365)&lt;75,((TODAY()-D32)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D32)/365)&lt;65,((TODAY()-D32)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D32)/365)&lt;55,((TODAY()-D32)/365)&gt;45),"Master",IF(AND(((TODAY()-D32)/365)&lt;45,((TODAY()-D32)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D32)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2119,7 +2122,7 @@
         <v>38625</v>
       </c>
       <c r="E33" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D33)/365)&lt;75,((TODAY()-D33)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D33)/365)&lt;65,((TODAY()-D33)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D33)/365)&lt;55,((TODAY()-D33)/365)&gt;45),"Master",IF(AND(((TODAY()-D33)/365)&lt;45,((TODAY()-D33)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D33)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Junior</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2141,7 +2144,7 @@
         <v>28305</v>
       </c>
       <c r="E34" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D34)/365)&lt;75,((TODAY()-D34)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D34)/365)&lt;65,((TODAY()-D34)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D34)/365)&lt;55,((TODAY()-D34)/365)&gt;45),"Master",IF(AND(((TODAY()-D34)/365)&lt;45,((TODAY()-D34)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D34)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ref="E34:E65" ca="1" si="1">IF(AND(((TODAY()-D34)/365)&lt;75,((TODAY()-D34)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D34)/365)&lt;65,((TODAY()-D34)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D34)/365)&lt;55,((TODAY()-D34)/365)&gt;45),"Master",IF(AND(((TODAY()-D34)/365)&lt;45,((TODAY()-D34)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D34)/365)&lt;19,"Junior","")))))</f>
         <v>Ap. de Master</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2163,7 +2166,7 @@
         <v>39107</v>
       </c>
       <c r="E35" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D35)/365)&lt;75,((TODAY()-D35)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D35)/365)&lt;65,((TODAY()-D35)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D35)/365)&lt;55,((TODAY()-D35)/365)&gt;45),"Master",IF(AND(((TODAY()-D35)/365)&lt;45,((TODAY()-D35)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D35)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2185,7 +2188,7 @@
         <v>25882</v>
       </c>
       <c r="E36" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D36)/365)&lt;75,((TODAY()-D36)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D36)/365)&lt;65,((TODAY()-D36)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D36)/365)&lt;55,((TODAY()-D36)/365)&gt;45),"Master",IF(AND(((TODAY()-D36)/365)&lt;45,((TODAY()-D36)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D36)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Master</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2207,7 +2210,7 @@
         <v>38167</v>
       </c>
       <c r="E37" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D37)/365)&lt;75,((TODAY()-D37)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D37)/365)&lt;65,((TODAY()-D37)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D37)/365)&lt;55,((TODAY()-D37)/365)&gt;45),"Master",IF(AND(((TODAY()-D37)/365)&lt;45,((TODAY()-D37)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D37)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -2229,7 +2232,7 @@
         <v>38407</v>
       </c>
       <c r="E38" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D38)/365)&lt;75,((TODAY()-D38)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D38)/365)&lt;65,((TODAY()-D38)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D38)/365)&lt;55,((TODAY()-D38)/365)&gt;45),"Master",IF(AND(((TODAY()-D38)/365)&lt;45,((TODAY()-D38)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D38)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2251,7 +2254,7 @@
         <v>37002</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D39)/365)&lt;75,((TODAY()-D39)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D39)/365)&lt;65,((TODAY()-D39)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D39)/365)&lt;55,((TODAY()-D39)/365)&gt;45),"Master",IF(AND(((TODAY()-D39)/365)&lt;45,((TODAY()-D39)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D39)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F39" s="2" t="s">
@@ -2273,7 +2276,7 @@
         <v>38288</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D40)/365)&lt;75,((TODAY()-D40)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D40)/365)&lt;65,((TODAY()-D40)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D40)/365)&lt;55,((TODAY()-D40)/365)&gt;45),"Master",IF(AND(((TODAY()-D40)/365)&lt;45,((TODAY()-D40)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D40)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2295,7 +2298,7 @@
         <v>38666</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D41)/365)&lt;75,((TODAY()-D41)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D41)/365)&lt;65,((TODAY()-D41)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D41)/365)&lt;55,((TODAY()-D41)/365)&gt;45),"Master",IF(AND(((TODAY()-D41)/365)&lt;45,((TODAY()-D41)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D41)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2317,7 +2320,7 @@
         <v>37554</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D42)/365)&lt;75,((TODAY()-D42)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D42)/365)&lt;65,((TODAY()-D42)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D42)/365)&lt;55,((TODAY()-D42)/365)&gt;45),"Master",IF(AND(((TODAY()-D42)/365)&lt;45,((TODAY()-D42)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D42)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F42" s="2" t="s">
@@ -2339,7 +2342,7 @@
         <v>38383</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D43)/365)&lt;75,((TODAY()-D43)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D43)/365)&lt;65,((TODAY()-D43)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D43)/365)&lt;55,((TODAY()-D43)/365)&gt;45),"Master",IF(AND(((TODAY()-D43)/365)&lt;45,((TODAY()-D43)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D43)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -2361,7 +2364,7 @@
         <v>37763</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D44)/365)&lt;75,((TODAY()-D44)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D44)/365)&lt;65,((TODAY()-D44)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D44)/365)&lt;55,((TODAY()-D44)/365)&gt;45),"Master",IF(AND(((TODAY()-D44)/365)&lt;45,((TODAY()-D44)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D44)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -2383,7 +2386,7 @@
         <v>25711</v>
       </c>
       <c r="E45" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D45)/365)&lt;75,((TODAY()-D45)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D45)/365)&lt;65,((TODAY()-D45)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D45)/365)&lt;55,((TODAY()-D45)/365)&gt;45),"Master",IF(AND(((TODAY()-D45)/365)&lt;45,((TODAY()-D45)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D45)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Master</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2405,7 +2408,7 @@
         <v>39043</v>
       </c>
       <c r="E46" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D46)/365)&lt;75,((TODAY()-D46)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D46)/365)&lt;65,((TODAY()-D46)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D46)/365)&lt;55,((TODAY()-D46)/365)&gt;45),"Master",IF(AND(((TODAY()-D46)/365)&lt;45,((TODAY()-D46)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D46)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2427,7 +2430,7 @@
         <v>26681</v>
       </c>
       <c r="E47" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D47)/365)&lt;75,((TODAY()-D47)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D47)/365)&lt;65,((TODAY()-D47)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D47)/365)&lt;55,((TODAY()-D47)/365)&gt;45),"Master",IF(AND(((TODAY()-D47)/365)&lt;45,((TODAY()-D47)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D47)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Master</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2449,7 +2452,7 @@
         <v>38310</v>
       </c>
       <c r="E48" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D48)/365)&lt;75,((TODAY()-D48)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D48)/365)&lt;65,((TODAY()-D48)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D48)/365)&lt;55,((TODAY()-D48)/365)&gt;45),"Master",IF(AND(((TODAY()-D48)/365)&lt;45,((TODAY()-D48)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D48)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2457,7 +2460,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>24723</v>
       </c>
       <c r="E49" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D49)/365)&lt;75,((TODAY()-D49)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D49)/365)&lt;65,((TODAY()-D49)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D49)/365)&lt;55,((TODAY()-D49)/365)&gt;45),"Master",IF(AND(((TODAY()-D49)/365)&lt;45,((TODAY()-D49)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D49)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Master</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2479,7 +2482,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>163</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>37222</v>
       </c>
       <c r="E50" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D50)/365)&lt;75,((TODAY()-D50)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D50)/365)&lt;65,((TODAY()-D50)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D50)/365)&lt;55,((TODAY()-D50)/365)&gt;45),"Master",IF(AND(((TODAY()-D50)/365)&lt;45,((TODAY()-D50)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D50)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F50" s="2" t="s">
@@ -2501,7 +2504,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>127</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>37689</v>
       </c>
       <c r="E51" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D51)/365)&lt;75,((TODAY()-D51)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D51)/365)&lt;65,((TODAY()-D51)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D51)/365)&lt;55,((TODAY()-D51)/365)&gt;45),"Master",IF(AND(((TODAY()-D51)/365)&lt;45,((TODAY()-D51)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D51)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2523,7 +2526,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>36911</v>
       </c>
       <c r="E52" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D52)/365)&lt;75,((TODAY()-D52)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D52)/365)&lt;65,((TODAY()-D52)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D52)/365)&lt;55,((TODAY()-D52)/365)&gt;45),"Master",IF(AND(((TODAY()-D52)/365)&lt;45,((TODAY()-D52)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D52)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F52" s="2" t="s">
@@ -2545,7 +2548,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>38973</v>
       </c>
       <c r="E53" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D53)/365)&lt;75,((TODAY()-D53)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D53)/365)&lt;65,((TODAY()-D53)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D53)/365)&lt;55,((TODAY()-D53)/365)&gt;45),"Master",IF(AND(((TODAY()-D53)/365)&lt;45,((TODAY()-D53)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D53)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2567,7 +2570,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>37445</v>
       </c>
       <c r="E54" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D54)/365)&lt;75,((TODAY()-D54)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D54)/365)&lt;65,((TODAY()-D54)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D54)/365)&lt;55,((TODAY()-D54)/365)&gt;45),"Master",IF(AND(((TODAY()-D54)/365)&lt;45,((TODAY()-D54)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D54)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F54" s="2" t="s">
@@ -2589,7 +2592,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -2603,15 +2606,18 @@
         <v>38610</v>
       </c>
       <c r="E55" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D55)/365)&lt;75,((TODAY()-D55)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D55)/365)&lt;65,((TODAY()-D55)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D55)/365)&lt;55,((TODAY()-D55)/365)&gt;45),"Master",IF(AND(((TODAY()-D55)/365)&lt;45,((TODAY()-D55)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D55)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -2625,15 +2631,18 @@
         <v>38250</v>
       </c>
       <c r="E56" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D56)/365)&lt;75,((TODAY()-D56)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D56)/365)&lt;65,((TODAY()-D56)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D56)/365)&lt;55,((TODAY()-D56)/365)&gt;45),"Master",IF(AND(((TODAY()-D56)/365)&lt;45,((TODAY()-D56)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D56)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -2647,15 +2656,18 @@
         <v>38667</v>
       </c>
       <c r="E57" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D57)/365)&lt;75,((TODAY()-D57)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D57)/365)&lt;65,((TODAY()-D57)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D57)/365)&lt;55,((TODAY()-D57)/365)&gt;45),"Master",IF(AND(((TODAY()-D57)/365)&lt;45,((TODAY()-D57)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D57)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
@@ -2669,15 +2681,18 @@
         <v>22464</v>
       </c>
       <c r="E58" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D58)/365)&lt;75,((TODAY()-D58)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D58)/365)&lt;65,((TODAY()-D58)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D58)/365)&lt;55,((TODAY()-D58)/365)&gt;45),"Master",IF(AND(((TODAY()-D58)/365)&lt;45,((TODAY()-D58)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D58)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Grand Master</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>162</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>28576</v>
       </c>
       <c r="E59" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D59)/365)&lt;75,((TODAY()-D59)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D59)/365)&lt;65,((TODAY()-D59)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D59)/365)&lt;55,((TODAY()-D59)/365)&gt;45),"Master",IF(AND(((TODAY()-D59)/365)&lt;45,((TODAY()-D59)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D59)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Ap. de Master</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2699,7 +2714,7 @@
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>174</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>38247</v>
       </c>
       <c r="E60" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D60)/365)&lt;75,((TODAY()-D60)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D60)/365)&lt;65,((TODAY()-D60)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D60)/365)&lt;55,((TODAY()-D60)/365)&gt;45),"Master",IF(AND(((TODAY()-D60)/365)&lt;45,((TODAY()-D60)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D60)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2721,7 +2736,7 @@
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>134</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>38769</v>
       </c>
       <c r="E61" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D61)/365)&lt;75,((TODAY()-D61)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D61)/365)&lt;65,((TODAY()-D61)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D61)/365)&lt;55,((TODAY()-D61)/365)&gt;45),"Master",IF(AND(((TODAY()-D61)/365)&lt;45,((TODAY()-D61)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D61)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -2743,7 +2758,7 @@
       </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
@@ -2757,7 +2772,7 @@
         <v>37256</v>
       </c>
       <c r="E62" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D62)/365)&lt;75,((TODAY()-D62)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D62)/365)&lt;65,((TODAY()-D62)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D62)/365)&lt;55,((TODAY()-D62)/365)&gt;45),"Master",IF(AND(((TODAY()-D62)/365)&lt;45,((TODAY()-D62)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D62)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F62" s="2" t="s">
@@ -2765,7 +2780,7 @@
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -2779,7 +2794,7 @@
         <v>38777</v>
       </c>
       <c r="E63" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D63)/365)&lt;75,((TODAY()-D63)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D63)/365)&lt;65,((TODAY()-D63)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D63)/365)&lt;55,((TODAY()-D63)/365)&gt;45),"Master",IF(AND(((TODAY()-D63)/365)&lt;45,((TODAY()-D63)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D63)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -2787,7 +2802,7 @@
       </c>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
@@ -2801,7 +2816,7 @@
         <v>38581</v>
       </c>
       <c r="E64" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D64)/365)&lt;75,((TODAY()-D64)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D64)/365)&lt;65,((TODAY()-D64)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D64)/365)&lt;55,((TODAY()-D64)/365)&gt;45),"Master",IF(AND(((TODAY()-D64)/365)&lt;45,((TODAY()-D64)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D64)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Junior</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -2823,7 +2838,7 @@
         <v>33061</v>
       </c>
       <c r="E65" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D65)/365)&lt;75,((TODAY()-D65)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D65)/365)&lt;65,((TODAY()-D65)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D65)/365)&lt;55,((TODAY()-D65)/365)&gt;45),"Master",IF(AND(((TODAY()-D65)/365)&lt;45,((TODAY()-D65)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D65)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Ap. de Master</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -2845,7 +2860,7 @@
         <v>39094</v>
       </c>
       <c r="E66" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D66)/365)&lt;75,((TODAY()-D66)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D66)/365)&lt;65,((TODAY()-D66)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D66)/365)&lt;55,((TODAY()-D66)/365)&gt;45),"Master",IF(AND(((TODAY()-D66)/365)&lt;45,((TODAY()-D66)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D66)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ref="E66:E97" ca="1" si="2">IF(AND(((TODAY()-D66)/365)&lt;75,((TODAY()-D66)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D66)/365)&lt;65,((TODAY()-D66)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D66)/365)&lt;55,((TODAY()-D66)/365)&gt;45),"Master",IF(AND(((TODAY()-D66)/365)&lt;45,((TODAY()-D66)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D66)/365)&lt;19,"Junior","")))))</f>
         <v>Junior</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -2867,7 +2882,7 @@
         <v>37073</v>
       </c>
       <c r="E67" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D67)/365)&lt;75,((TODAY()-D67)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D67)/365)&lt;65,((TODAY()-D67)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D67)/365)&lt;55,((TODAY()-D67)/365)&gt;45),"Master",IF(AND(((TODAY()-D67)/365)&lt;45,((TODAY()-D67)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D67)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F67" s="2" t="s">
@@ -2889,7 +2904,7 @@
         <v>38945</v>
       </c>
       <c r="E68" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D68)/365)&lt;75,((TODAY()-D68)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D68)/365)&lt;65,((TODAY()-D68)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D68)/365)&lt;55,((TODAY()-D68)/365)&gt;45),"Master",IF(AND(((TODAY()-D68)/365)&lt;45,((TODAY()-D68)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D68)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>Junior</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -2911,7 +2926,7 @@
         <v>34914</v>
       </c>
       <c r="E69" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D69)/365)&lt;75,((TODAY()-D69)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D69)/365)&lt;65,((TODAY()-D69)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D69)/365)&lt;55,((TODAY()-D69)/365)&gt;45),"Master",IF(AND(((TODAY()-D69)/365)&lt;45,((TODAY()-D69)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D69)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F69" s="2" t="s">
@@ -2933,7 +2948,7 @@
         <v>36837</v>
       </c>
       <c r="E70" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D70)/365)&lt;75,((TODAY()-D70)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D70)/365)&lt;65,((TODAY()-D70)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D70)/365)&lt;55,((TODAY()-D70)/365)&gt;45),"Master",IF(AND(((TODAY()-D70)/365)&lt;45,((TODAY()-D70)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D70)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F70" s="2" t="s">
@@ -2955,7 +2970,7 @@
         <v>38519</v>
       </c>
       <c r="E71" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D71)/365)&lt;75,((TODAY()-D71)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D71)/365)&lt;65,((TODAY()-D71)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D71)/365)&lt;55,((TODAY()-D71)/365)&gt;45),"Master",IF(AND(((TODAY()-D71)/365)&lt;45,((TODAY()-D71)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D71)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>Junior</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -2977,7 +2992,7 @@
         <v>36418</v>
       </c>
       <c r="E72" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D72)/365)&lt;75,((TODAY()-D72)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D72)/365)&lt;65,((TODAY()-D72)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D72)/365)&lt;55,((TODAY()-D72)/365)&gt;45),"Master",IF(AND(((TODAY()-D72)/365)&lt;45,((TODAY()-D72)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D72)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F72" s="2" t="s">
@@ -2999,7 +3014,7 @@
         <v>37204</v>
       </c>
       <c r="E73" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D73)/365)&lt;75,((TODAY()-D73)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D73)/365)&lt;65,((TODAY()-D73)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D73)/365)&lt;55,((TODAY()-D73)/365)&gt;45),"Master",IF(AND(((TODAY()-D73)/365)&lt;45,((TODAY()-D73)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D73)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F73" s="2" t="s">
@@ -3021,7 +3036,7 @@
         <v>38250</v>
       </c>
       <c r="E74" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D74)/365)&lt;75,((TODAY()-D74)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D74)/365)&lt;65,((TODAY()-D74)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D74)/365)&lt;55,((TODAY()-D74)/365)&gt;45),"Master",IF(AND(((TODAY()-D74)/365)&lt;45,((TODAY()-D74)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D74)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>Junior</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -3043,7 +3058,7 @@
         <v>35213</v>
       </c>
       <c r="E75" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D75)/365)&lt;75,((TODAY()-D75)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D75)/365)&lt;65,((TODAY()-D75)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D75)/365)&lt;55,((TODAY()-D75)/365)&gt;45),"Master",IF(AND(((TODAY()-D75)/365)&lt;45,((TODAY()-D75)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D75)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F75" s="2" t="s">
@@ -3065,7 +3080,7 @@
         <v>37533</v>
       </c>
       <c r="E76" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D76)/365)&lt;75,((TODAY()-D76)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D76)/365)&lt;65,((TODAY()-D76)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D76)/365)&lt;55,((TODAY()-D76)/365)&gt;45),"Master",IF(AND(((TODAY()-D76)/365)&lt;45,((TODAY()-D76)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D76)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F76" s="2" t="s">
@@ -3087,7 +3102,7 @@
         <v>37125</v>
       </c>
       <c r="E77" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D77)/365)&lt;75,((TODAY()-D77)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D77)/365)&lt;65,((TODAY()-D77)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D77)/365)&lt;55,((TODAY()-D77)/365)&gt;45),"Master",IF(AND(((TODAY()-D77)/365)&lt;45,((TODAY()-D77)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D77)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F77" s="2" t="s">
@@ -3109,7 +3124,7 @@
         <v>37341</v>
       </c>
       <c r="E78" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D78)/365)&lt;75,((TODAY()-D78)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D78)/365)&lt;65,((TODAY()-D78)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D78)/365)&lt;55,((TODAY()-D78)/365)&gt;45),"Master",IF(AND(((TODAY()-D78)/365)&lt;45,((TODAY()-D78)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D78)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F78" s="2" t="s">
@@ -3131,7 +3146,7 @@
         <v>38723</v>
       </c>
       <c r="E79" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D79)/365)&lt;75,((TODAY()-D79)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D79)/365)&lt;65,((TODAY()-D79)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D79)/365)&lt;55,((TODAY()-D79)/365)&gt;45),"Master",IF(AND(((TODAY()-D79)/365)&lt;45,((TODAY()-D79)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D79)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>Junior</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -3153,7 +3168,7 @@
         <v>27720</v>
       </c>
       <c r="E80" s="7" t="str">
-        <f ca="1">IF(AND(((TODAY()-D80)/365)&lt;75,((TODAY()-D80)/365)&gt;65),"Grand Grand Master",IF(AND(((TODAY()-D80)/365)&lt;65,((TODAY()-D80)/365)&gt;55),"Grand Master",IF(AND(((TODAY()-D80)/365)&lt;55,((TODAY()-D80)/365)&gt;45),"Master",IF(AND(((TODAY()-D80)/365)&lt;45,((TODAY()-D80)/365)&gt;30),"Ap. de Master",IF(((TODAY()-D80)/365)&lt;19,"Junior","")))))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>Master</v>
       </c>
       <c r="F80" s="2" t="s">
